--- a/data/csv/5b691f628f957723f48fd24a.xlsx
+++ b/data/csv/5b691f628f957723f48fd24a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="68">
   <si>
     <t>System</t>
   </si>
@@ -112,7 +112,7 @@
 Note: This update will change the behavior of Nautilus. Nautilus will now prompt the user for confirmation when executing an untrusted .desktop file for the first time, and then add it to the trusted file list. Desktop files stored in the system directory, as specified by the XDG_DATA_DIRS environment variable, are always considered trusted and executed without prompt.</t>
   </si>
   <si>
-    <t>open</t>
+    <t>2018-08-08T10:13:36.209Z</t>
   </si>
   <si>
     <t>RHEL 7 : dhcp (RHSA-2018:0158) (106332)</t>
@@ -126,6 +126,9 @@
 The Dynamic Host Configuration Protocol (DHCP) is a protocol that allows individual devices on an IP network to get their own network configuration information, including an IP address, a subnet mask, and a broadcast address. The dhcp packages provide a relay agent and ISC DHCP service required to enable and administer DHCP on a network.
 Security Fix(es) :
 * It was found that the DHCP daemon did not properly clean up closed OMAPI connections in certain cases. A remote attacker able to connect to the OMAPI port could use this flaw to exhaust file descriptors in the DHCP daemon, leading to a denial of service in the OMAPI functionality. (CVE-2017-3144)</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>RHEL 7 : kernel (RHSA-2018:0151) (Meltdown) (Spectre) (106330)</t>
@@ -790,8 +793,11 @@
       <c r="I4" t="s">
         <v>18</v>
       </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -823,7 +829,7 @@
         <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -831,7 +837,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -843,7 +849,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -855,7 +861,7 @@
         <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -863,7 +869,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -875,7 +881,7 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
@@ -887,7 +893,7 @@
         <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -895,7 +901,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -907,7 +913,7 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -919,7 +925,7 @@
         <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -927,7 +933,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -939,7 +945,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -951,7 +957,7 @@
         <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -959,7 +965,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -971,10 +977,10 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -983,7 +989,7 @@
         <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -991,22 +997,22 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1015,7 +1021,7 @@
         <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1023,22 +1029,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1047,7 +1053,7 @@
         <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1055,22 +1061,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1079,7 +1085,7 @@
         <v>18</v>
       </c>
       <c r="K13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1087,22 +1093,22 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1111,7 +1117,7 @@
         <v>18</v>
       </c>
       <c r="K14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1119,22 +1125,22 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
         <v>58</v>
       </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" t="s">
-        <v>57</v>
-      </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1143,7 +1149,7 @@
         <v>18</v>
       </c>
       <c r="K15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1151,22 +1157,22 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1175,7 +1181,7 @@
         <v>18</v>
       </c>
       <c r="K16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1183,22 +1189,22 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" t="s">
         <v>58</v>
       </c>
-      <c r="D17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" t="s">
-        <v>57</v>
-      </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1207,7 +1213,7 @@
         <v>18</v>
       </c>
       <c r="K17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1215,22 +1221,22 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1239,7 +1245,7 @@
         <v>18</v>
       </c>
       <c r="K18" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1247,22 +1253,22 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1271,7 +1277,7 @@
         <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1279,22 +1285,22 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,7 +1309,7 @@
         <v>18</v>
       </c>
       <c r="K20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1311,22 +1317,22 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1335,7 +1341,7 @@
         <v>18</v>
       </c>
       <c r="K21" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1343,22 +1349,22 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1367,7 +1373,7 @@
         <v>18</v>
       </c>
       <c r="K22" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1375,22 +1381,22 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1399,7 +1405,7 @@
         <v>18</v>
       </c>
       <c r="K23" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1407,22 +1413,22 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1431,7 +1437,7 @@
         <v>18</v>
       </c>
       <c r="K24" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1439,22 +1445,22 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1463,7 +1469,7 @@
         <v>18</v>
       </c>
       <c r="K25" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1471,22 +1477,22 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1495,12 +1501,12 @@
         <v>18</v>
       </c>
       <c r="K26" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
@@ -1527,7 +1533,7 @@
         <v>18</v>
       </c>
       <c r="K27" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
